--- a/xll_fre/hedge.xlsx
+++ b/xll_fre/hedge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\keithalewis\Fall2023\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\keithalewis\Fall2023\xll_fre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9170E667-B783-40F9-A982-A525E48FEFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABD0D38-4467-4533-88F7-DE19B6A55CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EF3073F3-0074-4A51-81C4-18BCAF8E4300}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_t">_xlfn.ANCHORARRAY(Sheet1!$E$4)</definedName>
+    <definedName name="A_t">Sheet1!$D$9</definedName>
     <definedName name="B_t">_xlfn.ANCHORARRAY(Sheet1!$F$4)</definedName>
     <definedName name="dM_t">_xlfn.ANCHORARRAY(Sheet1!$AD$4)</definedName>
     <definedName name="dN_t">_xlfn.ANCHORARRAY(Sheet1!$W$4)</definedName>
@@ -34,6 +35,7 @@
     <definedName name="S0">Sheet1!$C$6</definedName>
     <definedName name="sigma">Sheet1!$C$7</definedName>
     <definedName name="t">Sheet1!$C$9</definedName>
+    <definedName name="v_t">Sheet1!$W$4:$W$9</definedName>
     <definedName name="value">Sheet1!$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -117,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Hedging</t>
   </si>
@@ -211,12 +213,15 @@
   <si>
     <t>dM</t>
   </si>
+  <si>
+    <t>&lt;-- last A_t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +307,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -425,7 +437,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -455,15 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,6 +477,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23" customBuiltin="1"/>
@@ -814,22 +827,22 @@
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="str" cm="1">
+      <c r="C2" s="11" t="e" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_xlfn.TEXTJOIN("/",FALSE,TEXT(_xll.MONTE.COUNT(),"#,##0"), TEXT(_xll.MONTE.COUNT()/_xll.MONTE.ELAPSED(),"0.0"))</f>
-        <v>22,496/2007.5</v>
+        <v>#DIV/0!</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="23"/>
       <c r="Y2" s="16" t="s">
         <v>28</v>
       </c>
@@ -880,20 +893,20 @@
       <c r="X3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Y3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="Z3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="AA3" s="10"/>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="AC3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="AE3" s="14" t="s">
@@ -917,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="8" cm="1">
         <f t="array" ref="E4:E9">_xlfn.SEQUENCE(1+t/dt,1,0,dt)</f>
@@ -937,44 +950,44 @@
       </c>
       <c r="I4" s="8">
         <f ca="1">value-J4*H4</f>
-        <v>51.993880583837246</v>
+        <v>41.035217577372336</v>
       </c>
       <c r="J4" s="8" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">_xll.BSM.PUT.DELTA(r_, H4, sigma, k, t - E4)</f>
-        <v>-0.48006119416162751</v>
+        <v>-0.38208857781104716</v>
       </c>
       <c r="K4" s="8">
         <f ca="1">I4</f>
-        <v>51.993880583837246</v>
+        <v>41.035217577372336</v>
       </c>
       <c r="L4" s="8">
         <f ca="1">J4</f>
-        <v>-0.48006119416162751</v>
+        <v>-0.38208857781104716</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" ref="M4:M9" ca="1" si="0">I4*G4+J4*H4</f>
-        <v>3.987761167674492</v>
+        <v>2.8263597962676172</v>
       </c>
       <c r="N4" s="8">
         <f ca="1">-I4*G4-J4*H4</f>
-        <v>-3.987761167674492</v>
+        <v>-2.8263597962676172</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8" cm="1">
         <f t="array" aca="1" ref="P4:P9" ca="1">_xlfn.MAP(_t, S_t, _xlfn.LAMBDA(_xlpm.t_,_xlpm.S_, _xll.BSM.PUT.DELTA(r_, _xlpm.S_, sigma, k, t-_xlpm.t_)))</f>
-        <v>-0.48006119416162751</v>
+        <v>-0.38208857781104716</v>
       </c>
       <c r="Q4" s="8" cm="1">
         <f t="array" aca="1" ref="Q4:Q8" ca="1">_xlfn.DROP(_xlfn.ANCHORARRAY(P4),-1)</f>
-        <v>-0.48006119416162751</v>
+        <v>-0.38208857781104716</v>
       </c>
       <c r="R4" s="8" cm="1">
         <f t="array" aca="1" ref="R4:R9" ca="1">_xlfn.VSTACK(_xlfn.ANCHORARRAY(Q4),0)</f>
-        <v>-0.48006119416162751</v>
+        <v>-0.38208857781104716</v>
       </c>
       <c r="S4" s="8" cm="1">
         <f t="array" aca="1" ref="S4:S9" ca="1">_xlfn.VSTACK(_xlfn.DROP(_xlfn.MAP(_t,S_t,_xlfn.LAMBDA(_xlpm.t_,_xlpm.S_,_xll.BSM.PUT.DELTA(r_,_xlpm.S_,sigma,k,t-_xlpm.t_))),-1),0)</f>
-        <v>-0.48006119416162751</v>
+        <v>-0.38208857781104716</v>
       </c>
       <c r="T4" s="11">
         <f ca="1">R4-J4</f>
@@ -986,31 +999,31 @@
       </c>
       <c r="V4" s="1" cm="1">
         <f t="array" aca="1" ref="V4:V9" ca="1">N_t -_xlfn.ANCHORARRAY( U4)</f>
-        <v>-0.48006119416162751</v>
+        <v>-0.38208857781104716</v>
       </c>
       <c r="W4" s="1" cm="1">
         <f t="array" aca="1" ref="W4:W9" ca="1">N_t - _xlfn.VSTACK(0, _xlfn.DROP(N_t, -1))</f>
-        <v>-0.48006119416162751</v>
+        <v>-0.38208857781104716</v>
       </c>
       <c r="X4" s="11">
         <f ca="1">V4-L4</f>
         <v>0</v>
       </c>
       <c r="Y4" s="1" cm="1">
-        <f t="array" aca="1" ref="Y4:Y9" ca="1">-dN_t*S_t/R_t</f>
-        <v>48.006119416162754</v>
+        <f t="array" aca="1" ref="Y4:Y9" ca="1">-_xlfn.ANCHORARRAY(V4)*S_t/R_t</f>
+        <v>38.208857781104719</v>
       </c>
       <c r="Z4" s="1" cm="1">
         <f t="array" aca="1" ref="Z4:Z9" ca="1">_xlfn.SCAN(value,_xlfn.ANCHORARRAY(Y4),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,_xlpm.a+_xlpm.b))</f>
-        <v>51.993880583837246</v>
+        <v>41.035217577372336</v>
       </c>
       <c r="AA4" s="1" cm="1">
         <f t="array" aca="1" ref="AA4:AA9" ca="1">_xlfn.VSTACK(_xlfn.DROP(_xlfn.ANCHORARRAY(Z4),-1),0)</f>
-        <v>51.993880583837246</v>
+        <v>41.035217577372336</v>
       </c>
       <c r="AB4" s="1" cm="1">
         <f t="array" aca="1" ref="AB4:AB9" ca="1">_xlfn.VSTACK(_xlfn.DROP(_xlfn.SCAN(value,- dN_t*S_t/R_t,_xlfn.LAMBDA(_xlpm.a,_xlpm.b,_xlpm.a+_xlpm.b)),-1),0)</f>
-        <v>51.993880583837246</v>
+        <v>41.035217577372336</v>
       </c>
       <c r="AC4" s="11">
         <f ca="1">AA4-I4</f>
@@ -1018,23 +1031,23 @@
       </c>
       <c r="AD4" s="1" cm="1">
         <f t="array" aca="1" ref="AD4:AD9" ca="1">M_t - _xlfn.VSTACK(0,_xlfn.DROP(M_t, -1))</f>
-        <v>51.993880583837246</v>
+        <v>41.035217577372336</v>
       </c>
       <c r="AE4" s="11">
         <f ca="1">AD4-K4</f>
         <v>0</v>
       </c>
       <c r="AF4" s="1" cm="1">
-        <f t="array" aca="1" ref="AF4:AF9" ca="1">_xlfn.ANCHORARRAY(AA4)*R_t+N_t*S_t</f>
-        <v>3.987761167674492</v>
+        <f t="array" aca="1" ref="AF4:AF9" ca="1">_xlfn.ANCHORARRAY(AA4)*R_t+_xlfn.ANCHORARRAY(R4)*S_t</f>
+        <v>2.8263597962676172</v>
       </c>
       <c r="AG4" s="11">
-        <f ca="1">AF4-M4</f>
+        <f t="shared" ref="AG4:AG9" ca="1" si="1">AF4-M4</f>
         <v>0</v>
       </c>
       <c r="AH4" s="1" cm="1">
-        <f t="array" aca="1" ref="AH4:AH9" ca="1">-dM_t*R_t - dN_t*S_t</f>
-        <v>-3.987761167674492</v>
+        <f t="array" aca="1" ref="AH4:AH9" ca="1">-_xlfn.ANCHORARRAY(AD4)*R_t -_xlfn.ANCHORARRAY( V4)*S_t</f>
+        <v>-2.8263597962676172</v>
       </c>
       <c r="AI4" s="11">
         <f ca="1">AH4-N4</f>
@@ -1046,41 +1059,41 @@
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="8">
         <v>0.05</v>
       </c>
       <c r="F5" s="8">
         <f ca="1"/>
-        <v>-9.5267680362323998E-2</v>
+        <v>0.11392462231796632</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
+        <v>1.005012520859401</v>
       </c>
       <c r="H5" s="8">
         <f ca="1"/>
-        <v>98.5059201990573</v>
+        <v>102.45822048409019</v>
       </c>
       <c r="I5" s="8">
         <f ca="1">I4+K5</f>
-        <v>58.802195883876287</v>
+        <v>32.121409197311493</v>
       </c>
       <c r="J5" s="8" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">_xll.BSM.PUT.DELTA(r_, H5, sigma, k, t - E5)</f>
-        <v>-0.54917699234188955</v>
+        <v>-0.29465304566754597</v>
       </c>
       <c r="K5" s="8">
         <f ca="1">-L5*H5/G5</f>
-        <v>6.808315300039042</v>
+        <v>-8.913808380060841</v>
       </c>
       <c r="L5" s="8">
         <f ca="1">J5-J4</f>
-        <v>-6.9115798180262034E-2</v>
+        <v>8.7435532143501193E-2</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7050109010878103</v>
+        <v>2.0927917116322519</v>
       </c>
       <c r="N5" s="8">
         <f ca="1">-K5*G5-L5*H5</f>
@@ -1089,74 +1102,74 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8">
         <f ca="1"/>
-        <v>-0.54917699234188955</v>
+        <v>-0.29465304566754597</v>
       </c>
       <c r="Q5" s="8">
         <f ca="1"/>
-        <v>-0.54917699234188955</v>
+        <v>-0.29465304566754597</v>
       </c>
       <c r="R5" s="8">
         <f ca="1"/>
-        <v>-0.54917699234188955</v>
+        <v>-0.29465304566754597</v>
       </c>
       <c r="S5" s="8">
         <f ca="1"/>
-        <v>-0.54917699234188955</v>
+        <v>-0.29465304566754597</v>
       </c>
       <c r="T5" s="11">
-        <f t="shared" ref="T5:T9" ca="1" si="1">R5-J5</f>
+        <f t="shared" ref="T5:T9" ca="1" si="2">R5-J5</f>
         <v>0</v>
       </c>
       <c r="U5" s="1">
         <f ca="1"/>
-        <v>-0.48006119416162751</v>
+        <v>-0.38208857781104716</v>
       </c>
       <c r="V5" s="1">
         <f ca="1"/>
-        <v>-6.9115798180262034E-2</v>
+        <v>8.7435532143501193E-2</v>
       </c>
       <c r="W5" s="1">
         <f ca="1"/>
-        <v>-6.9115798180262034E-2</v>
+        <v>8.7435532143501193E-2</v>
       </c>
       <c r="X5" s="11">
-        <f t="shared" ref="X5:X9" ca="1" si="2">V5-L5</f>
+        <f t="shared" ref="X5:X9" ca="1" si="3">V5-L5</f>
         <v>0</v>
       </c>
       <c r="Y5" s="1">
         <f ca="1"/>
-        <v>6.808315300039042</v>
+        <v>-8.913808380060841</v>
       </c>
       <c r="Z5" s="1">
         <f ca="1"/>
-        <v>58.802195883876287</v>
+        <v>32.121409197311493</v>
       </c>
       <c r="AA5" s="1">
         <f ca="1"/>
-        <v>58.802195883876287</v>
+        <v>32.121409197311493</v>
       </c>
       <c r="AB5" s="1">
         <f ca="1"/>
-        <v>58.802195883876287</v>
+        <v>32.121409197311493</v>
       </c>
       <c r="AC5" s="11">
-        <f t="shared" ref="AC5:AC9" ca="1" si="3">AA5-I5</f>
+        <f t="shared" ref="AC5:AC9" ca="1" si="4">AA5-I5</f>
         <v>0</v>
       </c>
       <c r="AD5" s="1">
         <f ca="1"/>
-        <v>6.8083153000390411</v>
+        <v>-8.9138083800608428</v>
       </c>
       <c r="AE5" s="11">
-        <f t="shared" ref="AE5:AE9" ca="1" si="4">AD5-K5</f>
+        <f t="shared" ref="AE5:AE9" ca="1" si="5">AD5-K5</f>
         <v>0</v>
       </c>
       <c r="AF5" s="1">
         <f ca="1"/>
-        <v>4.7050109010878103</v>
+        <v>2.0927917116322519</v>
       </c>
       <c r="AG5" s="11">
-        <f ca="1">AF5-M5</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH5" s="1">
@@ -1164,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="11">
-        <f t="shared" ref="AI5:AI9" ca="1" si="5">AH5-N5</f>
+        <f t="shared" ref="AI5:AI9" ca="1" si="6">AH5-N5</f>
         <v>0</v>
       </c>
     </row>
@@ -1180,34 +1193,34 @@
       </c>
       <c r="F6" s="8">
         <f ca="1"/>
-        <v>-0.46705674174204226</v>
+        <v>0.10236476501795819</v>
       </c>
       <c r="G6" s="8">
-        <v>1</v>
+        <v>1.0100501670841679</v>
       </c>
       <c r="H6" s="8">
         <f ca="1"/>
-        <v>91.813453358918878</v>
+        <v>102.375061099307</v>
       </c>
       <c r="I6" s="8">
         <f ca="1">I5+K6</f>
-        <v>87.001952603115626</v>
+        <v>32.276375608901596</v>
       </c>
       <c r="J6" s="8" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">_xll.BSM.PUT.DELTA(r_, H6, sigma, k, t - E6)</f>
-        <v>-0.85631887283515806</v>
+        <v>-0.29618197124999013</v>
       </c>
       <c r="K6" s="8">
         <f ca="1">-L6*H6/G6</f>
-        <v>28.199756719239346</v>
+        <v>0.15496641159010027</v>
       </c>
       <c r="L6" s="8">
         <f ca="1">J6-J5</f>
-        <v>-0.30714188049326852</v>
+        <v>-1.5289255824441628E-3</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3803597117028517</v>
+        <v>2.2791111734114899</v>
       </c>
       <c r="N6" s="8">
         <f ca="1">-K6*G6-L6*H6</f>
@@ -1216,83 +1229,83 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8">
         <f ca="1"/>
-        <v>-0.85631887283515806</v>
+        <v>-0.29618197124999013</v>
       </c>
       <c r="Q6" s="8">
         <f ca="1"/>
-        <v>-0.85631887283515806</v>
+        <v>-0.29618197124999013</v>
       </c>
       <c r="R6" s="8">
         <f ca="1"/>
-        <v>-0.85631887283515806</v>
+        <v>-0.29618197124999013</v>
       </c>
       <c r="S6" s="8">
         <f ca="1"/>
-        <v>-0.85631887283515806</v>
+        <v>-0.29618197124999013</v>
       </c>
       <c r="T6" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U6" s="1">
         <f ca="1"/>
-        <v>-0.54917699234188955</v>
+        <v>-0.29465304566754597</v>
       </c>
       <c r="V6" s="1">
         <f ca="1"/>
-        <v>-0.30714188049326852</v>
+        <v>-1.5289255824441628E-3</v>
       </c>
       <c r="W6" s="1">
         <f ca="1"/>
-        <v>-0.30714188049326852</v>
+        <v>-1.5289255824441628E-3</v>
       </c>
       <c r="X6" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Y6" s="1">
         <f ca="1"/>
-        <v>28.199756719239346</v>
+        <v>0.15496641159010027</v>
       </c>
       <c r="Z6" s="1">
         <f ca="1"/>
-        <v>87.001952603115626</v>
+        <v>32.276375608901596</v>
       </c>
       <c r="AA6" s="1">
         <f ca="1"/>
-        <v>87.001952603115626</v>
+        <v>32.276375608901596</v>
       </c>
       <c r="AB6" s="1">
         <f ca="1"/>
-        <v>87.001952603115626</v>
+        <v>32.276375608901596</v>
       </c>
       <c r="AC6" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="AD6" s="1">
         <f ca="1"/>
-        <v>28.199756719239339</v>
+        <v>0.15496641159010238</v>
       </c>
       <c r="AE6" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1094237467877974E-15</v>
       </c>
       <c r="AF6" s="1">
         <f ca="1"/>
-        <v>8.3803597117028517</v>
+        <v>2.2791111734114899</v>
       </c>
       <c r="AG6" s="11">
-        <f ca="1">AF6-M6</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH6" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>-2.1371793224034263E-15</v>
       </c>
       <c r="AI6" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-2.1371793224034263E-15</v>
       </c>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.35">
@@ -1307,34 +1320,34 @@
       </c>
       <c r="F7" s="8">
         <f ca="1"/>
-        <v>-0.60558062133013602</v>
+        <v>0.25367405833538786</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>1.0151130646157189</v>
       </c>
       <c r="H7" s="8">
         <f ca="1"/>
-        <v>89.662629138258055</v>
+        <v>105.67887318678271</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" ref="I7:I9" ca="1" si="6">I6+K7</f>
-        <v>95.835125894322729</v>
+        <f t="shared" ref="I7:I9" ca="1" si="7">I6+K7</f>
+        <v>16.42025514906841</v>
       </c>
       <c r="J7" s="8" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">_xll.BSM.PUT.DELTA(r_, H7, sigma, k, t - E7)</f>
-        <v>-0.95483453511388205</v>
+        <v>-0.14387380834548283</v>
       </c>
       <c r="K7" s="8">
         <f ca="1">-L7*H7/G7</f>
-        <v>8.8331732912071086</v>
+        <v>-15.856120459833187</v>
       </c>
       <c r="L7" s="8">
         <f ca="1">J7-J6</f>
-        <v>-9.8515662278723992E-2</v>
+        <v>0.1523081629045073</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.222151084005688</v>
+        <v>1.4639935791011123</v>
       </c>
       <c r="N7" s="8">
         <f ca="1">-K7*G7-L7*H7</f>
@@ -1343,74 +1356,74 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8">
         <f ca="1"/>
-        <v>-0.95483453511388205</v>
+        <v>-0.14387380834548283</v>
       </c>
       <c r="Q7" s="8">
         <f ca="1"/>
-        <v>-0.95483453511388205</v>
+        <v>-0.14387380834548283</v>
       </c>
       <c r="R7" s="8">
         <f ca="1"/>
-        <v>-0.95483453511388205</v>
+        <v>-0.14387380834548283</v>
       </c>
       <c r="S7" s="8">
         <f ca="1"/>
-        <v>-0.95483453511388205</v>
+        <v>-0.14387380834548283</v>
       </c>
       <c r="T7" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="1">
         <f ca="1"/>
-        <v>-0.85631887283515806</v>
+        <v>-0.29618197124999013</v>
       </c>
       <c r="V7" s="1">
         <f ca="1"/>
-        <v>-9.8515662278723992E-2</v>
+        <v>0.1523081629045073</v>
       </c>
       <c r="W7" s="1">
         <f ca="1"/>
-        <v>-9.8515662278723992E-2</v>
+        <v>0.1523081629045073</v>
       </c>
       <c r="X7" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Y7" s="1">
         <f ca="1"/>
-        <v>8.8331732912071086</v>
+        <v>-15.856120459833187</v>
       </c>
       <c r="Z7" s="1">
         <f ca="1"/>
-        <v>95.835125894322729</v>
+        <v>16.42025514906841</v>
       </c>
       <c r="AA7" s="1">
         <f ca="1"/>
-        <v>95.835125894322729</v>
+        <v>16.42025514906841</v>
       </c>
       <c r="AB7" s="1">
         <f ca="1"/>
-        <v>95.835125894322729</v>
+        <v>16.42025514906841</v>
       </c>
       <c r="AC7" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="AD7" s="1">
         <f ca="1"/>
-        <v>8.8331732912071033</v>
+        <v>-15.856120459833186</v>
       </c>
       <c r="AE7" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="AF7" s="1">
         <f ca="1"/>
-        <v>10.222151084005688</v>
+        <v>1.4639935791011123</v>
       </c>
       <c r="AG7" s="11">
-        <f ca="1">AF7-M7</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH7" s="1">
@@ -1418,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1434,34 +1447,34 @@
       </c>
       <c r="F8" s="8">
         <f ca="1"/>
-        <v>-0.42464066705696735</v>
+        <v>0.26335925973811286</v>
       </c>
       <c r="G8" s="8">
-        <v>1</v>
+        <v>1.0202013400267558</v>
       </c>
       <c r="H8" s="8">
         <f ca="1"/>
-        <v>93.339375749303827</v>
+        <v>106.04272065173991</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>94.040587912654161</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>9.1650225523144151</v>
       </c>
       <c r="J8" s="8" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">_xll.BSM.PUT.DELTA(r_, H8, sigma, k, t - E8)</f>
-        <v>-0.93560858714430872</v>
+        <v>-7.4073656369725502E-2</v>
       </c>
       <c r="K8" s="8">
         <f ca="1">-L8*H8/G8</f>
-        <v>-1.7945379816685703</v>
+        <v>-7.2552325967539959</v>
       </c>
       <c r="L8" s="8">
         <f ca="1">J8-J7</f>
-        <v>1.9225947969573332E-2</v>
+        <v>6.9800151975757327E-2</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7114664429162616</v>
+        <v>1.4951962391788278</v>
       </c>
       <c r="N8" s="8">
         <f ca="1">-K8*G8-L8*H8</f>
@@ -1470,74 +1483,74 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8">
         <f ca="1"/>
-        <v>-0.93560858714430872</v>
+        <v>-7.4073656369725502E-2</v>
       </c>
       <c r="Q8" s="8">
         <f ca="1"/>
-        <v>-0.93560858714430872</v>
+        <v>-7.4073656369725502E-2</v>
       </c>
       <c r="R8" s="8">
         <f ca="1"/>
-        <v>-0.93560858714430872</v>
+        <v>-7.4073656369725502E-2</v>
       </c>
       <c r="S8" s="8">
         <f ca="1"/>
-        <v>-0.93560858714430872</v>
+        <v>-7.4073656369725502E-2</v>
       </c>
       <c r="T8" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U8" s="1">
         <f ca="1"/>
-        <v>-0.95483453511388205</v>
+        <v>-0.14387380834548283</v>
       </c>
       <c r="V8" s="1">
         <f ca="1"/>
-        <v>1.9225947969573332E-2</v>
+        <v>6.9800151975757327E-2</v>
       </c>
       <c r="W8" s="1">
         <f ca="1"/>
-        <v>1.9225947969573332E-2</v>
+        <v>6.9800151975757327E-2</v>
       </c>
       <c r="X8" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Y8" s="1">
         <f ca="1"/>
-        <v>-1.7945379816685703</v>
+        <v>-7.2552325967539959</v>
       </c>
       <c r="Z8" s="1">
         <f ca="1"/>
-        <v>94.040587912654161</v>
+        <v>9.1650225523144151</v>
       </c>
       <c r="AA8" s="1">
         <f ca="1"/>
-        <v>94.040587912654161</v>
+        <v>9.1650225523144151</v>
       </c>
       <c r="AB8" s="1">
         <f ca="1"/>
-        <v>94.040587912654161</v>
+        <v>9.1650225523144151</v>
       </c>
       <c r="AC8" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="AD8" s="1">
         <f ca="1"/>
-        <v>-1.7945379816685687</v>
+        <v>-7.255232596753995</v>
       </c>
       <c r="AE8" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="AF8" s="1">
         <f ca="1"/>
-        <v>6.7114664429162616</v>
+        <v>1.4951962391788278</v>
       </c>
       <c r="AG8" s="11">
-        <f ca="1">AF8-M8</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH8" s="1">
@@ -1545,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1561,17 +1574,17 @@
       </c>
       <c r="F9" s="8">
         <f ca="1"/>
-        <v>-0.84309017155240196</v>
+        <v>-1.3459246667304026E-2</v>
       </c>
       <c r="G9" s="8">
-        <v>1</v>
+        <v>1.0253151205244289</v>
       </c>
       <c r="H9" s="8">
         <f ca="1"/>
-        <v>86.189826759851655</v>
+        <v>100.4819728371301</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J9" s="8">
@@ -1579,11 +1592,11 @@
       </c>
       <c r="K9" s="8">
         <f ca="1">-1*SUM(K4:K8)</f>
-        <v>-94.040587912654161</v>
+        <v>-9.1650225523144151</v>
       </c>
       <c r="L9" s="8">
         <f ca="1">-1*SUM(L4:L8)</f>
-        <v>0.93560858714430872</v>
+        <v>7.4073656369725502E-2</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -1591,12 +1604,12 @@
       </c>
       <c r="N9" s="8">
         <f ca="1">-K9*G9-L9*H9</f>
-        <v>13.400645871656621</v>
+        <v>1.9539690755456958</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8">
         <f ca="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8">
@@ -1608,32 +1621,32 @@
         <v>0</v>
       </c>
       <c r="T9" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="U9" s="1">
         <f ca="1"/>
-        <v>-0.93560858714430872</v>
+        <v>-7.4073656369725502E-2</v>
       </c>
       <c r="V9" s="1">
         <f ca="1"/>
-        <v>0.93560858714430872</v>
+        <v>7.4073656369725502E-2</v>
       </c>
       <c r="W9" s="1">
         <f ca="1"/>
-        <v>0.93560858714430872</v>
+        <v>7.4073656369725502E-2</v>
       </c>
       <c r="X9" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Y9" s="1">
         <f ca="1"/>
-        <v>-80.639942040997539</v>
+        <v>-7.2592971451378601</v>
       </c>
       <c r="Z9" s="1">
         <f ca="1"/>
-        <v>13.400645871656621</v>
+        <v>1.905725407176555</v>
       </c>
       <c r="AA9" s="1">
         <f ca="1"/>
@@ -1644,15 +1657,15 @@
         <v>0</v>
       </c>
       <c r="AC9" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="AD9" s="1">
         <f ca="1"/>
-        <v>-94.040587912654161</v>
+        <v>-9.1650225523144151</v>
       </c>
       <c r="AE9" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="AF9" s="1">
@@ -1660,15 +1673,15 @@
         <v>0</v>
       </c>
       <c r="AG9" s="11">
-        <f ca="1">AF9-M9</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH9" s="1">
         <f ca="1"/>
-        <v>13.400645871656621</v>
+        <v>1.9539690755456958</v>
       </c>
       <c r="AI9" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1677,11 +1690,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="13">
-        <f>t/D10</f>
         <v>0.05</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1706,7 +1715,7 @@
       </c>
       <c r="C11" s="1" cm="1">
         <f t="array" ref="C11">_xll.BSM.PUT.VALUE(r_, S0, sigma, k, t)</f>
-        <v>3.987761167674492</v>
+        <v>2.8263597962676181</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1731,7 +1740,7 @@
       </c>
       <c r="C12" s="1" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">MAX(k-_xlfn.TAKE(S_t,-1),0)</f>
-        <v>13.810173240148345</v>
+        <v>0</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1756,7 +1765,10 @@
       </c>
       <c r="C13" s="1">
         <f ca="1">N9</f>
-        <v>13.400645871656621</v>
+        <v>1.9539690755456958</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1781,7 +1793,7 @@
       </c>
       <c r="C14" s="1">
         <f ca="1">payoff-hedge</f>
-        <v>0.40952736849172311</v>
+        <v>-1.9539690755456958</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1806,7 +1818,7 @@
       </c>
       <c r="C15" s="6">
         <f t="array" aca="1" ref="C15:C16" ca="1">_xll.MONTE.STDEV(error)</f>
-        <v>4.0056317481199026E-2</v>
+        <v>-0.65122054912488081</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1830,7 +1842,7 @@
       </c>
       <c r="C16" s="6">
         <f ca="1"/>
-        <v>1.4732842775440087</v>
+        <v>1.6044271568876405</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
